--- a/test_契約管理/已完成/test_契約管理_値上げ対象抽出.xlsx
+++ b/test_契約管理/已完成/test_契約管理_値上げ対象抽出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="707">
   <si>
     <t>URL:</t>
   </si>
@@ -3507,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KP144"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3916,9 +3916,7 @@
       <c r="B55" s="58"/>
     </row>
     <row r="56" spans="1:75" s="57" customFormat="1" ht="14.25">
-      <c r="A56" s="64" t="s">
-        <v>159</v>
-      </c>
+      <c r="A56" s="64"/>
       <c r="B56" s="63" t="s">
         <v>540</v>
       </c>
@@ -16917,7 +16915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:BC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
